--- a/Project/Sport1_P1.5.xlsx
+++ b/Project/Sport1_P1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A3D28-B480-4637-8126-C863E8FAEE8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DAD6A9-4C86-46AF-82EA-444515D56811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19710" yWindow="4620" windowWidth="15360" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="Mua_sam_linh_kien">'Linh kiện'!$P$3</definedName>
     <definedName name="Nhan_cong">'Nhân Công'!$N$5</definedName>
+    <definedName name="Tong_chi_sport1_p1.5">Chi!$O$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
-  <si>
-    <t>PEGA Thu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Nội dung</t>
   </si>
@@ -73,12 +71,6 @@
     <t>Nhân công</t>
   </si>
   <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán</t>
-  </si>
-  <si>
     <t>SPORT1 P1.5 Chi</t>
   </si>
   <si>
@@ -152,13 +144,22 @@
   </si>
   <si>
     <t>Mua linh kiện Minh Hà</t>
+  </si>
+  <si>
+    <t>Linh kiện hàn mạch sport1 P1.5</t>
+  </si>
+  <si>
+    <t>SPORT1 Thu</t>
+  </si>
+  <si>
+    <t>40% gói 72 mạch Zeus p1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +197,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -269,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -297,6 +298,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,21 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,7 +628,7 @@
   <dimension ref="L2:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,39 +642,45 @@
     <row r="2" spans="12:17" x14ac:dyDescent="0.25">
       <c r="P2" s="2">
         <f>SUM(N6:N11)</f>
-        <v>0</v>
+        <v>14400000</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="L3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="7">
+        <v>44473</v>
+      </c>
+      <c r="N6" s="8">
+        <v>14400000</v>
+      </c>
     </row>
     <row r="7" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L7" s="6"/>
@@ -700,8 +720,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="K3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,54 +736,52 @@
       <c r="L3" s="1"/>
       <c r="O3" s="11">
         <f>SUM(L7:L12)</f>
-        <v>10261000</v>
+        <v>11211000</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="11:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="K4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="19"/>
     </row>
     <row r="5" spans="11:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="19"/>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K6" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K7" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="8">
         <f>Mua_sam_linh_kien</f>
-        <v>10261000</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>11211000</v>
+      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K8" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="8">
         <f>Nhan_cong</f>
@@ -807,7 +825,7 @@
     <mergeCell ref="K4:M5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
       <formula1>"Đã thanh toán, Chưa thanh toán"</formula1>
     </dataValidation>
   </dataValidations>
@@ -821,17 +839,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49A106-6870-47BE-BEAE-1CF90A276984}">
-  <dimension ref="J3:Q28"/>
+  <dimension ref="J3:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="30" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
@@ -839,433 +857,547 @@
   </cols>
   <sheetData>
     <row r="3" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="J3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
       <c r="P3" s="11">
-        <f>SUM(M6:M28)</f>
-        <v>10261000</v>
+        <f>SUM(M6:M37)</f>
+        <v>11211000</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="P5" s="1">
+        <f>SUM(M6:M14)</f>
+        <v>2797000</v>
+      </c>
+      <c r="Q5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="6">
+        <v>13</v>
+      </c>
+      <c r="K6" s="29">
         <v>1</v>
       </c>
       <c r="L6" s="8">
         <v>150000</v>
       </c>
       <c r="M6" s="8">
+        <f t="shared" ref="M6:M29" si="0">L6*K6</f>
         <v>150000</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6">
+        <v>14</v>
+      </c>
+      <c r="K7" s="29">
         <v>1</v>
       </c>
       <c r="L7" s="8">
         <v>115000</v>
       </c>
       <c r="M7" s="8">
+        <f t="shared" si="0"/>
         <v>115000</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(M15:M29)</f>
+        <v>8414000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="6">
+        <v>15</v>
+      </c>
+      <c r="K8" s="29">
         <v>1</v>
       </c>
       <c r="L8" s="8">
         <v>276000</v>
       </c>
       <c r="M8" s="8">
+        <f t="shared" si="0"/>
         <v>276000</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="6">
+        <v>16</v>
+      </c>
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="L9" s="8">
         <v>400000</v>
       </c>
       <c r="M9" s="8">
+        <f t="shared" si="0"/>
         <v>400000</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="6">
+        <v>17</v>
+      </c>
+      <c r="K10" s="29">
         <v>1</v>
       </c>
       <c r="L10" s="8">
         <v>120000</v>
       </c>
       <c r="M10" s="8">
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="6">
+        <v>18</v>
+      </c>
+      <c r="K11" s="29">
         <v>1</v>
       </c>
       <c r="L11" s="8">
         <v>230000</v>
       </c>
       <c r="M11" s="8">
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="6">
+        <v>19</v>
+      </c>
+      <c r="K12" s="29">
         <v>70</v>
       </c>
       <c r="L12" s="8">
         <v>9000</v>
       </c>
       <c r="M12" s="8">
+        <f t="shared" si="0"/>
         <v>630000</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="6">
+        <v>20</v>
+      </c>
+      <c r="K13" s="29">
         <v>70</v>
       </c>
       <c r="L13" s="8">
         <v>10800</v>
       </c>
       <c r="M13" s="8">
+        <f t="shared" si="0"/>
         <v>756000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="6">
+        <v>21</v>
+      </c>
+      <c r="K14" s="29">
         <v>1</v>
       </c>
       <c r="L14" s="8">
         <v>120000</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
       <c r="N14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="10:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J15" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="22">
+        <v>3</v>
+      </c>
+      <c r="L15" s="23">
+        <v>110000</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>330000</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="10:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1</v>
+      </c>
+      <c r="L16" s="23">
+        <v>2125000</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>2125000</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="28">
-        <v>3</v>
-      </c>
-      <c r="L15" s="29">
-        <v>110000</v>
-      </c>
-      <c r="M15" s="30">
-        <v>330000</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="K17" s="22">
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <v>577000</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>577000</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J18" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="10:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="J16" s="27" t="s">
+      <c r="K18" s="22">
+        <v>10</v>
+      </c>
+      <c r="L18" s="23">
+        <v>11500</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="28">
-        <v>1</v>
-      </c>
-      <c r="L16" s="29">
-        <v>2125000</v>
-      </c>
-      <c r="M16" s="30">
-        <v>2125000</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="10:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J17" s="27" t="s">
+      <c r="K19" s="22">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>180000</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="28">
-        <v>1</v>
-      </c>
-      <c r="L17" s="29">
-        <v>577000</v>
-      </c>
-      <c r="M17" s="30">
-        <v>577000</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J18" s="27" t="s">
+      <c r="K20" s="22">
+        <v>1</v>
+      </c>
+      <c r="L20" s="23">
+        <v>260000</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="28">
-        <v>10</v>
-      </c>
-      <c r="L18" s="29">
-        <v>11500</v>
-      </c>
-      <c r="M18" s="30">
-        <v>115000</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="10:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J19" s="27" t="s">
+      <c r="K21" s="22">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <v>122000</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>122000</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="28">
-        <v>1</v>
-      </c>
-      <c r="L19" s="29">
-        <v>180000</v>
-      </c>
-      <c r="M19" s="30">
-        <v>180000</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="10:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J20" s="31" t="s">
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="23">
+        <v>120000</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="28">
-        <v>1</v>
-      </c>
-      <c r="L20" s="29">
-        <v>260000</v>
-      </c>
-      <c r="M20" s="30">
-        <v>260000</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="10:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="J21" s="31" t="s">
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="23">
+        <v>928000</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>928000</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="28">
-        <v>1</v>
-      </c>
-      <c r="L21" s="29">
-        <v>122000</v>
-      </c>
-      <c r="M21" s="30">
-        <v>122000</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="10:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J22" s="31" t="s">
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
+      <c r="L24" s="23">
+        <v>222000</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>222000</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="28">
-        <v>1</v>
-      </c>
-      <c r="L22" s="29">
-        <v>120000</v>
-      </c>
-      <c r="M22" s="30">
-        <v>120000</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="10:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="J23" s="31" t="s">
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
+      <c r="L25" s="23">
+        <v>200000</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="28">
-        <v>1</v>
-      </c>
-      <c r="L23" s="29">
-        <v>928000</v>
-      </c>
-      <c r="M23" s="30">
-        <v>928000</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="10:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="J24" s="31" t="s">
+      <c r="K26" s="22">
+        <v>1</v>
+      </c>
+      <c r="L26" s="23">
+        <v>1750000</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="28">
-        <v>1</v>
-      </c>
-      <c r="L24" s="29">
-        <v>222000</v>
-      </c>
-      <c r="M24" s="30">
-        <v>222000</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="10:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J25" s="31" t="s">
+      <c r="K27" s="22">
+        <v>1</v>
+      </c>
+      <c r="L27" s="23">
+        <v>500000</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="28">
-        <v>1</v>
-      </c>
-      <c r="L25" s="29">
-        <v>200000</v>
-      </c>
-      <c r="M25" s="30">
-        <v>200000</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="10:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J26" s="31" t="s">
+      <c r="K28" s="22">
+        <v>1</v>
+      </c>
+      <c r="L28" s="23">
+        <v>155000</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="0"/>
+        <v>155000</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="L26" s="29">
-        <v>1750000</v>
-      </c>
-      <c r="M26" s="30">
-        <v>1750000</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="10:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="J27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="28">
-        <v>1</v>
-      </c>
-      <c r="L27" s="29">
-        <v>500000</v>
-      </c>
-      <c r="M27" s="30">
-        <v>500000</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="10:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="29">
-        <v>155000</v>
-      </c>
-      <c r="M28" s="30">
-        <v>155000</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K29" s="29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>830000</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>830000</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="27"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="27"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="8">
+        <f>L31*K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="27"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="8">
+        <f>L32*K32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J33" s="27"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="8">
+        <f>L33*K33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J34" s="27"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="8">
+        <f>L34*K34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J35" s="27"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="8">
+        <f>L35*K35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1280,7 +1412,7 @@
   <dimension ref="J5:O15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,33 +1423,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="N5" s="11">
         <f>SUM(K8:K15)</f>
         <v>0</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J7" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="10:15" x14ac:dyDescent="0.25">

--- a/Project/Sport1_P1.5.xlsx
+++ b/Project/Sport1_P1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DAD6A9-4C86-46AF-82EA-444515D56811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29078F-5FF9-435E-B72A-626B1CB3FF97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Nội dung</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>40% gói 72 mạch Zeus p1.5</t>
+  </si>
+  <si>
+    <t>BT1026x40</t>
+  </si>
+  <si>
+    <t>Vitech</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="L2:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +742,7 @@
       <c r="L3" s="1"/>
       <c r="O3" s="11">
         <f>SUM(L7:L12)</f>
-        <v>11211000</v>
+        <v>19817000</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>3</v>
@@ -774,7 +780,7 @@
       </c>
       <c r="L7" s="8">
         <f>Mua_sam_linh_kien</f>
-        <v>11211000</v>
+        <v>19817000</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="18"/>
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49A106-6870-47BE-BEAE-1CF90A276984}">
   <dimension ref="J3:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +872,7 @@
       <c r="N3" s="34"/>
       <c r="P3" s="11">
         <f>SUM(M6:M37)</f>
-        <v>11211000</v>
+        <v>19817000</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>3</v>
@@ -914,7 +920,7 @@
         <v>150000</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" ref="M6:M29" si="0">L6*K6</f>
+        <f t="shared" ref="M6:M30" si="0">L6*K6</f>
         <v>150000</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1343,11 +1349,22 @@
       </c>
     </row>
     <row r="30" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J30" s="27"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="J30" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="29">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>8606000</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="0"/>
+        <v>8606000</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J31" s="27"/>
@@ -1412,7 +1429,7 @@
   <dimension ref="J5:O15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
